--- a/BOQ/BOQ.xlsx
+++ b/BOQ/BOQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DRA\Projects\Kabanga-Kahama\Kabanga\BOQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DRA\Github\Kabanga-Documents\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE46BE6-862E-48BB-974C-A44397B4E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817143E-5803-4F44-BA47-1C1C41B97734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="10" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -359,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,7 +420,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -448,6 +447,9 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -464,9 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9156,7 +9155,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="33"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9186,11 +9185,11 @@
         <f>VLOOKUP($C5,[5]Sheet1!$A:$F,D$2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="34" t="str">
+      <c r="E5" s="33" t="str">
         <f>VLOOKUP($C5,[5]Sheet1!$A:$F,E$2,FALSE)</f>
         <v>SIMATIC IPC847E (Rack PC, 19", 4HU); 3x Gbit Ethernet (IE/PN), RJ45; 1x DVI-D; 2x display ports; 1x COM 1; audio, 4x USB 3.1, 2x USB 3.1 (Type C) on the rear side; 2x USB 3.0 on the front; 1x USB 3.1 internal, temperature and fan monitoring; Watchdog, card retainer Xeon E-2278GE (8C/16T, 3.3 (4.7) GHz, 16 MB cache, TB, VT-d, AMT); board 9 slots: 7x PCI, 2x PCIe x16 (8 L); RAID5, 3x 4 TB HDD (Enterprise) 3.5 SATA and 4 TB HDD (Enterprise) 3.5" SATA as HotSpare; Enclosure with drive support Type A (for trays on the front); 100/240 V AC industrial power supply unit; 64 GB DDR4 SDRAM (4x 16 GB), Dual Channel; Without extension (HW); Windows Server 2019 Standard edition including 5 clients, 64-bit, MUI (en, de, fr, it, es); SIMATIC IPC DiagMonitor Software enclosed; Without power supply cable</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <f>VLOOKUP($C5,[5]Sheet1!$A:$F,F$2,FALSE)</f>
         <v>200420</v>
       </c>
@@ -9214,11 +9213,11 @@
         <f>VLOOKUP($C6,[5]Sheet1!$A:$F,D$2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="34" t="str">
+      <c r="E6" s="33" t="str">
         <f>VLOOKUP($C6,[5]Sheet1!$A:$F,E$2,FALSE)</f>
         <v>SIMATIC IPC RW-545A (rack IPC, 19", 4 U); MB: chipset R680E, 2x 1 Gbit LAN(IE/PN), RJ45; 1x 2.5 Gbit LAN(IE/PN), RJ45; 3x display port, 1x DVI-D; 4x USB 3.2 Gen. 2 type A, 2x USB 3.2 Gen. 2x2 type C, 2x USB 2.0 type A internal, 2x M.2 slot,TPM2.0, audio; 7 slots: 1x PCI, 2x PCIe x16(1x 16L or 2x 8L), 1x PCIe x8(4L), 3x PCIe x4(4L), 2x USB 3.1 type A, 12x status LEDs on the front; Core i7-12700E 12C(8P+4E)/20T, 2.1 (4.8) GHz, 25 MB cache, iAMT RAID1, 2x 960 GB SSD 2.5" SATA without NVMe drives 32 GB DDR5 SDRAM (2x 16 GB) enclosure with drive support type A (for rack units on the front), blue chromated 550 W 100/240 V AC industrial power supply unit Windows 10 IoT Enterprise 2021 LTSC for Core i7/i9; with USB flash drive (restore image; D&amp;D) supply cable Europe</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <f>VLOOKUP($C6,[5]Sheet1!$A:$F,F$2,FALSE)</f>
         <v>135871</v>
       </c>
@@ -9242,11 +9241,11 @@
         <f>VLOOKUP($C7,[5]Sheet1!$A:$F,D$2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="34" t="str">
+      <c r="E7" s="33" t="str">
         <f>VLOOKUP($C7,[5]Sheet1!$A:$F,E$2,FALSE)</f>
         <v>SIMATIC IPC RW-545A (rack IPC, 19", 4 U); MB: chipset R680E, 2x 1 Gbit LAN(IE/PN), RJ45; 1x 2.5 Gbit LAN(IE/PN), RJ45; 3x display port, 1x DVI-D; 4x USB 3.2 Gen. 2 type A, 2x USB 3.2 Gen. 2x2 type C, 2x USB 2.0 type A internal, 2x M.2 slot,TPM2.0, audio; 7 slots: 1x PCI, 2x PCIe x16(1x 16L or 2x 8L), 1x PCIe x8(4L), 3x PCIe x4(4L), 2x USB 3.1 type A, 12x status LEDs on the front; Core i5-12500E 6C(4P)/12T, 2.9 (4.5) GHz, 18 MB cache, iAMT 480 GB SSD 2.5" SATA without NVMe drives 8 GB DDR5 SDRAM (1x 8 GB) enclosure with drive support type A (for rack units on the front), blue chromated graphics card NVIDIA T400 (4 GB, 3x mDP: 3x adapter mDP to DP) (1 slot occupied), 550 W 100/240 V AC industrial power supply unit Windows 10 IoT Enterprise 2021 LTSC for Core i3/i5; without USB flash drive (restore image; D&amp;D) supply cable Europe</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <f>VLOOKUP($C7,[5]Sheet1!$A:$F,F$2,FALSE)</f>
         <v>87991</v>
       </c>
@@ -9467,23 +9466,23 @@
       <c r="H1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="36" t="e">
+      <c r="I1" s="35">
         <f>SUM(I3:I250)</f>
-        <v>#REF!</v>
+        <v>11879554.610000001</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="37" t="e">
+      <c r="K1" s="36">
         <f>SUM(K3:K250)</f>
-        <v>#REF!</v>
+        <v>593977.73050000006</v>
       </c>
       <c r="L1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="37" t="e">
+      <c r="M1" s="36">
         <f>SUM(M3:M250)</f>
-        <v>#REF!</v>
+        <v>605857.28510999994</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -9527,37 +9526,37 @@
         <f>'PLC - Free Issue'!C5</f>
         <v>#REF!</v>
       </c>
-      <c r="F3" t="e">
+      <c r="F3">
         <f>'PLC - Free Issue'!D5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="e">
         <f>'PLC - Free Issue'!E5</f>
         <v>#REF!</v>
       </c>
-      <c r="H3" s="3" t="e">
+      <c r="H3" s="3">
         <f>'PLC - Free Issue'!F5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I3" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <f>'PLC - Free Issue'!G5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
         <f>H3/Setup!$B$1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K3" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
         <f>I3/Setup!$B$1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L3" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
         <f>FV(Setup!$B$2,Setup!$B$3, ,'Full BOQ'!J3*-1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
         <f>FV(Setup!$B$2,Setup!$B$3, ,'Full BOQ'!K3*-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -9580,37 +9579,37 @@
         <f>'PLC - Free Issue'!C6</f>
         <v>#REF!</v>
       </c>
-      <c r="F4" t="e">
+      <c r="F4">
         <f>'PLC - Free Issue'!D6</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="e">
         <f>'PLC - Free Issue'!E6</f>
         <v>#REF!</v>
       </c>
-      <c r="H4" s="3" t="e">
+      <c r="H4" s="3">
         <f>'PLC - Free Issue'!F6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <f>'PLC - Free Issue'!G6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
         <f>H4/Setup!$B$1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
         <f>I4/Setup!$B$1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L4" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
         <f>FV(Setup!$B$2,Setup!$B$3, ,'Full BOQ'!J4*-1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
         <f>FV(Setup!$B$2,Setup!$B$3, ,'Full BOQ'!K4*-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -9633,37 +9632,37 @@
         <f>'PLC - Free Issue'!C7</f>
         <v>#REF!</v>
       </c>
-      <c r="F5" t="e">
+      <c r="F5">
         <f>'PLC - Free Issue'!D7</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="e">
         <f>'PLC - Free Issue'!E7</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="3" t="e">
+      <c r="H5" s="3">
         <f>'PLC - Free Issue'!F7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I5" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <f>'PLC - Free Issue'!G7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
         <f>H5/Setup!$B$1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K5" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
         <f>I5/Setup!$B$1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
         <f>FV(Setup!$B$2,Setup!$B$3, ,'Full BOQ'!J5*-1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
         <f>FV(Setup!$B$2,Setup!$B$3, ,'Full BOQ'!K5*-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -11309,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -11362,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -11415,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -11468,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -11521,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -11574,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -11627,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -12157,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -12210,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -12263,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -12369,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -12422,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -17906,7 +17905,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17977,21 +17976,21 @@
       <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="e">
+      <c r="C3" s="17">
         <f>'PLC - Free Issue'!G4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
         <f>FV(Setup!$B$2,Setup!$B$3,,-1*'Full BOQ Summary'!C3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
         <f>C3/Setup!$B$1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F3" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
         <f>FV(Setup!$B$2,Setup!$B$3,,-1*'Full BOQ Summary'!E3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>2000000</v>
@@ -18213,25 +18212,25 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="27" t="e">
-        <f>SUM(C3:C12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="27" t="e">
-        <f>SUM(D3:D12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="28" t="e">
+      <c r="C13" s="27">
+        <f>SUM(C2:C12)</f>
+        <v>11879554.609999999</v>
+      </c>
+      <c r="D13" s="27">
+        <f>SUM(D2:D12)</f>
+        <v>12117145.702200001</v>
+      </c>
+      <c r="E13" s="27">
         <f>SUM(E2:E12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="28" t="e">
+        <v>593977.73050000006</v>
+      </c>
+      <c r="F13" s="27">
         <f>SUM(F2:F12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="3" t="e">
+        <v>605857.28511000006</v>
+      </c>
+      <c r="H13" s="3">
         <f>SUM(H2:H12)+C13</f>
-        <v>#REF!</v>
+        <v>41479554.609999999</v>
       </c>
     </row>
   </sheetData>
@@ -18327,7 +18326,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18398,9 +18397,9 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="14" t="e">
+      <c r="G4" s="14">
         <f>SUM(G5:G23)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18414,21 +18413,19 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D5" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="D5" s="1">
+        <v>0</v>
       </c>
       <c r="E5" t="e">
         <f>IF(ISNA(VLOOKUP($C5,[1]Kabanga!$E:$L,E$2,FALSE)),"-",VLOOKUP($C5,[1]Kabanga!$E:$L,E$2,FALSE))</f>
         <v>#REF!</v>
       </c>
-      <c r="F5" s="4" t="e">
-        <f>IF(ISNA(VLOOKUP($C5,[1]Kabanga!$E:$L,F$2,FALSE)),0,VLOOKUP($C5,[1]Kabanga!$E:$L,F$2,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G5" s="3" t="e">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <f>F5*D5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -18442,21 +18439,19 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="D6" s="1">
+        <v>0</v>
       </c>
       <c r="E6" t="e">
         <f>IF(ISNA(VLOOKUP(C6,[1]Kabanga!$E:$L,E$2,FALSE)),"-",VLOOKUP(C6,[1]Kabanga!$E:$L,E$2,FALSE))</f>
         <v>#REF!</v>
       </c>
-      <c r="F6" s="4" t="e">
-        <f>IF(ISNA(VLOOKUP($C6,[1]Kabanga!$E:$L,F$2,FALSE)),0,VLOOKUP($C6,[1]Kabanga!$E:$L,F$2,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="3" t="e">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G7" si="0">F6*D6</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -18470,21 +18465,19 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D7" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="D7" s="1">
+        <v>0</v>
       </c>
       <c r="E7" t="e">
         <f>IF(ISNA(VLOOKUP(C7,[1]Kabanga!$E:$L,E$2,FALSE)),"-",VLOOKUP(C7,[1]Kabanga!$E:$L,E$2,FALSE))</f>
         <v>#REF!</v>
       </c>
-      <c r="F7" s="4" t="e">
-        <f>IF(ISNA(VLOOKUP($C7,[1]Kabanga!$E:$L,F$2,FALSE)),0,VLOOKUP($C7,[1]Kabanga!$E:$L,F$2,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="3" t="e">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -18693,7 +18686,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="33"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="15" t="str">
         <f>IF(G4='[1]RIO Composition'!$J$2,"OK","Incorrect Value")</f>
         <v>OK</v>
@@ -18730,7 +18723,7 @@
         <f>IF(C5="-","-",VLOOKUP($C5,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SITOP PSU6200 24 V/40 A stabilized power supply input: 400 - 500 V AC output: 24 V DC/40 A with diagnostic interface</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="37">
         <f>IF(C5="-",0,VLOOKUP($C5,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>6750</v>
       </c>
@@ -18758,7 +18751,7 @@
         <f>IF(C6="-","-",VLOOKUP($C6,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SITOP RED1200 redundancy module input/output: DC 24/48V/80 A Suitable for decoupling two SITOP power supplies with maximal per 40 A output current</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="37">
         <f>IF(C6="-",0,VLOOKUP($C6,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>3930</v>
       </c>
@@ -18786,7 +18779,7 @@
         <f>IF(C7="-","-",VLOOKUP($C7,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SIMATIC, Standard mounting rail 35mm, Length 483 mm for 19" cabinet</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="37">
         <f>IF(C7="-",0,VLOOKUP($C7,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>754</v>
       </c>
@@ -18814,7 +18807,7 @@
         <f>IF(C8="-","-",VLOOKUP($C8,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="37">
         <f>IF(C8="-",0,VLOOKUP($C8,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>2160</v>
       </c>
@@ -18842,7 +18835,7 @@
         <f>IF(C9="-","-",VLOOKUP($C9,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="37">
         <f>IF(C9="-",0,VLOOKUP($C9,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>2510</v>
       </c>
@@ -18870,7 +18863,7 @@
         <f>IF(C10="-","-",VLOOKUP($C10,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="37">
         <f>IF(C10="-",0,VLOOKUP($C10,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>5770</v>
       </c>
@@ -18898,7 +18891,7 @@
         <f>IF(C11="-","-",VLOOKUP($C11,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="37">
         <f>IF(C11="-",0,VLOOKUP($C11,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>5540</v>
       </c>
@@ -18926,7 +18919,7 @@
         <f>IF(C12="-","-",VLOOKUP($C12,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="37">
         <f>IF(C12="-",0,VLOOKUP($C12,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>12500</v>
       </c>
@@ -18954,7 +18947,7 @@
         <f>IF(C13="-","-",VLOOKUP($C13,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SIMATIC ET 200SP, PROFINET, 2-port interface module IM 155-6PN/2 High Feature, 1 slot for BusAdapter, max. 64 I/O modules and 16 ET 200AL modules, S2 redundancy, multi-hotswap, 0.25 ms, isochronous mode, optional PN strain relief, including server module</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="37">
         <f>IF(C13="-",0,VLOOKUP($C13,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>7270</v>
       </c>
@@ -18982,7 +18975,7 @@
         <f>IF(C14="-","-",VLOOKUP($C14,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SIMATIC BusAdapter BA 2xLC-LD 2x LC-LD port, for single-mode fiber-optic cable, up to 20 km</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="37">
         <f>IF(C14="-",0,VLOOKUP($C14,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>10500</v>
       </c>
@@ -19010,7 +19003,7 @@
         <f>IF(C15="-","-",VLOOKUP($C15,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SIMATIC ET 200SP, BaseUnit BU15-P16+A10+2B, BU type A0, Push-in terminals, with 10 AUX terminals, bridged to the left, WxH: 15 mmx141 mm</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="37">
         <f>IF(C15="-",0,VLOOKUP($C15,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>508</v>
       </c>
@@ -19038,7 +19031,7 @@
         <f>IF(C16="-","-",VLOOKUP($C16,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SIMATIC ET 200SP, BaseUnit BU15-P16+A10+2D, BU type A0, Push-in terminals, with 10 AUX terminals, New load group, WxH: 15 mmx141 mm</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="37">
         <f>IF(C16="-",0,VLOOKUP($C16,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>800</v>
       </c>
@@ -19066,7 +19059,7 @@
         <f>IF(C17="-","-",VLOOKUP($C17,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SIMATIC S7-1500, System power supply PS 25W 24 V DC, supplies the backplane bus of the S7-1500 with operating voltage</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="37">
         <f>IF(C17="-",0,VLOOKUP($C17,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>5470</v>
       </c>
@@ -19094,7 +19087,7 @@
         <f>IF(C18="-","-",VLOOKUP($C18,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="37">
         <f>IF(C18="-",0,VLOOKUP($C18,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>5200</v>
       </c>
@@ -19122,7 +19115,7 @@
         <f>IF(C19="-","-",VLOOKUP($C19,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="37">
         <f>IF(C19="-",0,VLOOKUP($C19,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>5540</v>
       </c>
@@ -19150,7 +19143,7 @@
         <f>IF(C20="-","-",VLOOKUP($C20,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="37">
         <f>IF(C20="-",0,VLOOKUP($C20,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>15700</v>
       </c>
@@ -19178,7 +19171,7 @@
         <f>IF(C21="-","-",VLOOKUP($C21,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="37">
         <f>IF(C21="-",0,VLOOKUP($C21,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>19100</v>
       </c>
@@ -19206,7 +19199,7 @@
         <f>IF(C22="-","-",VLOOKUP($C22,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SIMATIC S7-1500, mounting rail 482.6 mm (approx. 19 inch); incl. grounding screw, integrated DIN rail for mounting of incidentals such as terminals, automatic circuit breakers and relays</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="37">
         <f>IF(C22="-",0,VLOOKUP($C22,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>754</v>
       </c>
@@ -19234,7 +19227,7 @@
         <f>IF(C23="-","-",VLOOKUP($C23,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SIMATIC S7-1500, mounting rail 530 mm (approx. 20.9 inch); incl. grounding screw, integrated DIN rail for mounting of incidentals such as terminals, automatic circuit breakers and relays</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="37">
         <f>IF(C23="-",0,VLOOKUP($C23,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>924</v>
       </c>
@@ -19262,7 +19255,7 @@
         <f>IF(C24="-","-",VLOOKUP($C24,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SIMATIC S7-1500, Front connector Screw-type connection system, 40-pole for 35 mm wide modules incl. 4 potential bridges, and cable ties</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="37">
         <f>IF(C24="-",0,VLOOKUP($C24,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>924</v>
       </c>
@@ -19290,7 +19283,7 @@
         <f>IF(C25="-","-",VLOOKUP($C25,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SCALANCE XC206-2SFP manageable Layer 2 IE switch; IEC 62443-4-2 certified; 6x 10/100 MBit/s RJ45 ports; 2x 100/1000 Mbit/s SFP; 1x console port; diagnostics LED; redundant power supply; temperature range -40 °C to +70 °C; assembly: DIN rail/S7 mounting rail/wall Office redundancy functions features (RSTP, VLAN,...); PROFINET IO device; Ethernet/IP-compliant; C-plug slot;</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="37">
         <f>IF(C25="-",0,VLOOKUP($C25,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>24900</v>
       </c>
@@ -19318,7 +19311,7 @@
         <f>IF(C26="-","-",VLOOKUP($C26,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v xml:space="preserve">	SCALANCE XC206-2SFP G manageable Layer 2 IE switch; IEC 62443-4-2 certified; 6x 10/100/1000 Mbps RJ45 ports; 2x 1000 Mbps SFP; 1x console port; diagnostics LED; redundant power supply; temperature range -40 °C to +70 °C; assembly: DIN rail/S7 mounting rail/wall; redundancy functions; office features (RSTP, VLAN,...); PROFINET IO device; Ethernet/IP-compliant; C-PLUG slot; IEEE 1588v2 PTP</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="37">
         <f>IF(C26="-",0,VLOOKUP($C26,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>27600</v>
       </c>
@@ -19346,7 +19339,7 @@
         <f>IF(C27="-","-",VLOOKUP($C27,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SCALANCE X accessory; Plug-in transceiver SFP991-1; 1x 100 Mbit/s LC port, optical; multimode optical up to max. 5 km.</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="37">
         <f>IF(C27="-",0,VLOOKUP($C27,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>3660</v>
       </c>
@@ -19374,7 +19367,7 @@
         <f>IF(C28="-","-",VLOOKUP($C28,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>SCALANCE X accessory; Active plug-in transceiver SFP991-1LD A; 1x 100 Mbit/s LC port, optical; single-mode optical up to max. 26 km</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="37">
         <f>IF(C28="-",0,VLOOKUP($C28,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>8190</v>
       </c>
@@ -19402,7 +19395,7 @@
         <f>IF(C29="-","-",VLOOKUP($C29,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="37">
         <f>IF(C29="-",0,VLOOKUP($C29,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19430,7 +19423,7 @@
         <f>IF(C30="-","-",VLOOKUP($C30,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="37">
         <f>IF(C30="-",0,VLOOKUP($C30,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19458,7 +19451,7 @@
         <f>IF(C31="-","-",VLOOKUP($C31,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="37">
         <f>IF(C31="-",0,VLOOKUP($C31,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19486,7 +19479,7 @@
         <f>IF(C32="-","-",VLOOKUP($C32,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="37">
         <f>IF(C32="-",0,VLOOKUP($C32,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19514,7 +19507,7 @@
         <f>IF(C33="-","-",VLOOKUP($C33,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="37">
         <f>IF(C33="-",0,VLOOKUP($C33,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19542,7 +19535,7 @@
         <f>IF(C34="-","-",VLOOKUP($C34,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="37">
         <f>IF(C34="-",0,VLOOKUP($C34,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19570,7 +19563,7 @@
         <f>IF(C35="-","-",VLOOKUP($C35,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="37">
         <f>IF(C35="-",0,VLOOKUP($C35,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19598,7 +19591,7 @@
         <f>IF(C36="-","-",VLOOKUP($C36,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="37">
         <f>IF(C36="-",0,VLOOKUP($C36,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19626,7 +19619,7 @@
         <f>IF(C37="-","-",VLOOKUP($C37,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="37">
         <f>IF(C37="-",0,VLOOKUP($C37,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19654,7 +19647,7 @@
         <f>IF(C38="-","-",VLOOKUP($C38,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="37">
         <f>IF(C38="-",0,VLOOKUP($C38,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19682,7 +19675,7 @@
         <f>IF(C39="-","-",VLOOKUP($C39,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="37">
         <f>IF(C39="-",0,VLOOKUP($C39,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19710,7 +19703,7 @@
         <f>IF(C40="-","-",VLOOKUP($C40,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="37">
         <f>IF(C40="-",0,VLOOKUP($C40,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19738,7 +19731,7 @@
         <f>IF(C41="-","-",VLOOKUP($C41,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="37">
         <f>IF(C41="-",0,VLOOKUP($C41,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19766,7 +19759,7 @@
         <f>IF(C42="-","-",VLOOKUP($C42,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="37">
         <f>IF(C42="-",0,VLOOKUP($C42,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19794,7 +19787,7 @@
         <f>IF(C43="-","-",VLOOKUP($C43,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="37">
         <f>IF(C43="-",0,VLOOKUP($C43,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19822,7 +19815,7 @@
         <f>IF(C44="-","-",VLOOKUP($C44,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="37">
         <f>IF(C44="-",0,VLOOKUP($C44,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19850,7 +19843,7 @@
         <f>IF(C45="-","-",VLOOKUP($C45,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="37">
         <f>IF(C45="-",0,VLOOKUP($C45,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19878,7 +19871,7 @@
         <f>IF(C46="-","-",VLOOKUP($C46,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="37">
         <f>IF(C46="-",0,VLOOKUP($C46,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19906,7 +19899,7 @@
         <f>IF(C47="-","-",VLOOKUP($C47,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="37">
         <f>IF(C47="-",0,VLOOKUP($C47,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19934,7 +19927,7 @@
         <f>IF(C48="-","-",VLOOKUP($C48,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="37">
         <f>IF(C48="-",0,VLOOKUP($C48,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19962,7 +19955,7 @@
         <f>IF(C49="-","-",VLOOKUP($C49,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="37">
         <f>IF(C49="-",0,VLOOKUP($C49,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -19990,7 +19983,7 @@
         <f>IF(C50="-","-",VLOOKUP($C50,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="37">
         <f>IF(C50="-",0,VLOOKUP($C50,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20018,7 +20011,7 @@
         <f>IF(C51="-","-",VLOOKUP($C51,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="37">
         <f>IF(C51="-",0,VLOOKUP($C51,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20046,7 +20039,7 @@
         <f>IF(C52="-","-",VLOOKUP($C52,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="37">
         <f>IF(C52="-",0,VLOOKUP($C52,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20074,7 +20067,7 @@
         <f>IF(C53="-","-",VLOOKUP($C53,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="37">
         <f>IF(C53="-",0,VLOOKUP($C53,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20102,7 +20095,7 @@
         <f>IF(C54="-","-",VLOOKUP($C54,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="37">
         <f>IF(C54="-",0,VLOOKUP($C54,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20130,7 +20123,7 @@
         <f>IF(C55="-","-",VLOOKUP($C55,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="37">
         <f>IF(C55="-",0,VLOOKUP($C55,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20158,7 +20151,7 @@
         <f>IF(C56="-","-",VLOOKUP($C56,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="37">
         <f>IF(C56="-",0,VLOOKUP($C56,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20186,7 +20179,7 @@
         <f>IF(C57="-","-",VLOOKUP($C57,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="37">
         <f>IF(C57="-",0,VLOOKUP($C57,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20214,7 +20207,7 @@
         <f>IF(C58="-","-",VLOOKUP($C58,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="37">
         <f>IF(C58="-",0,VLOOKUP($C58,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20242,7 +20235,7 @@
         <f>IF(C59="-","-",VLOOKUP($C59,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="37">
         <f>IF(C59="-",0,VLOOKUP($C59,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20270,7 +20263,7 @@
         <f>IF(C60="-","-",VLOOKUP($C60,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="37">
         <f>IF(C60="-",0,VLOOKUP($C60,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20298,7 +20291,7 @@
         <f>IF(C61="-","-",VLOOKUP($C61,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="37">
         <f>IF(C61="-",0,VLOOKUP($C61,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20326,7 +20319,7 @@
         <f>IF(C62="-","-",VLOOKUP($C62,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="37">
         <f>IF(C62="-",0,VLOOKUP($C62,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20354,7 +20347,7 @@
         <f>IF(C63="-","-",VLOOKUP($C63,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="37">
         <f>IF(C63="-",0,VLOOKUP($C63,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20382,7 +20375,7 @@
         <f>IF(C64="-","-",VLOOKUP($C64,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="37">
         <f>IF(C64="-",0,VLOOKUP($C64,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20410,7 +20403,7 @@
         <f>IF(C65="-","-",VLOOKUP($C65,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="37">
         <f>IF(C65="-",0,VLOOKUP($C65,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20438,7 +20431,7 @@
         <f>IF(C66="-","-",VLOOKUP($C66,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="37">
         <f>IF(C66="-",0,VLOOKUP($C66,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20466,7 +20459,7 @@
         <f>IF(C67="-","-",VLOOKUP($C67,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F67" s="45">
+      <c r="F67" s="37">
         <f>IF(C67="-",0,VLOOKUP($C67,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20494,7 +20487,7 @@
         <f>IF(C68="-","-",VLOOKUP($C68,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="37">
         <f>IF(C68="-",0,VLOOKUP($C68,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20522,7 +20515,7 @@
         <f>IF(C69="-","-",VLOOKUP($C69,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="37">
         <f>IF(C69="-",0,VLOOKUP($C69,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20550,7 +20543,7 @@
         <f>IF(C70="-","-",VLOOKUP($C70,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="37">
         <f>IF(C70="-",0,VLOOKUP($C70,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20578,7 +20571,7 @@
         <f>IF(C71="-","-",VLOOKUP($C71,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="37">
         <f>IF(C71="-",0,VLOOKUP($C71,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20606,7 +20599,7 @@
         <f>IF(C72="-","-",VLOOKUP($C72,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="37">
         <f>IF(C72="-",0,VLOOKUP($C72,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20634,7 +20627,7 @@
         <f>IF(C73="-","-",VLOOKUP($C73,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="37">
         <f>IF(C73="-",0,VLOOKUP($C73,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20662,7 +20655,7 @@
         <f>IF(C74="-","-",VLOOKUP($C74,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="37">
         <f>IF(C74="-",0,VLOOKUP($C74,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20690,7 +20683,7 @@
         <f>IF(C75="-","-",VLOOKUP($C75,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F75" s="45">
+      <c r="F75" s="37">
         <f>IF(C75="-",0,VLOOKUP($C75,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20718,7 +20711,7 @@
         <f>IF(C76="-","-",VLOOKUP($C76,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F76" s="45">
+      <c r="F76" s="37">
         <f>IF(C76="-",0,VLOOKUP($C76,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20746,7 +20739,7 @@
         <f>IF(C77="-","-",VLOOKUP($C77,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F77" s="45">
+      <c r="F77" s="37">
         <f>IF(C77="-",0,VLOOKUP($C77,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20774,7 +20767,7 @@
         <f>IF(C78="-","-",VLOOKUP($C78,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="37">
         <f>IF(C78="-",0,VLOOKUP($C78,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20802,7 +20795,7 @@
         <f>IF(C79="-","-",VLOOKUP($C79,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F79" s="45">
+      <c r="F79" s="37">
         <f>IF(C79="-",0,VLOOKUP($C79,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20830,7 +20823,7 @@
         <f>IF(C80="-","-",VLOOKUP($C80,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F80" s="45">
+      <c r="F80" s="37">
         <f>IF(C80="-",0,VLOOKUP($C80,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20858,7 +20851,7 @@
         <f>IF(C81="-","-",VLOOKUP($C81,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F81" s="45">
+      <c r="F81" s="37">
         <f>IF(C81="-",0,VLOOKUP($C81,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20886,7 +20879,7 @@
         <f>IF(C82="-","-",VLOOKUP($C82,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F82" s="45">
+      <c r="F82" s="37">
         <f>IF(C82="-",0,VLOOKUP($C82,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20914,7 +20907,7 @@
         <f>IF(C83="-","-",VLOOKUP($C83,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F83" s="45">
+      <c r="F83" s="37">
         <f>IF(C83="-",0,VLOOKUP($C83,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20942,7 +20935,7 @@
         <f>IF(C84="-","-",VLOOKUP($C84,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F84" s="45">
+      <c r="F84" s="37">
         <f>IF(C84="-",0,VLOOKUP($C84,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20970,7 +20963,7 @@
         <f>IF(C85="-","-",VLOOKUP($C85,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F85" s="45">
+      <c r="F85" s="37">
         <f>IF(C85="-",0,VLOOKUP($C85,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -20998,7 +20991,7 @@
         <f>IF(C86="-","-",VLOOKUP($C86,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F86" s="45">
+      <c r="F86" s="37">
         <f>IF(C86="-",0,VLOOKUP($C86,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21026,7 +21019,7 @@
         <f>IF(C87="-","-",VLOOKUP($C87,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F87" s="45">
+      <c r="F87" s="37">
         <f>IF(C87="-",0,VLOOKUP($C87,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21054,7 +21047,7 @@
         <f>IF(C88="-","-",VLOOKUP($C88,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F88" s="45">
+      <c r="F88" s="37">
         <f>IF(C88="-",0,VLOOKUP($C88,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21082,7 +21075,7 @@
         <f>IF(C89="-","-",VLOOKUP($C89,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F89" s="45">
+      <c r="F89" s="37">
         <f>IF(C89="-",0,VLOOKUP($C89,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21110,7 +21103,7 @@
         <f>IF(C90="-","-",VLOOKUP($C90,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F90" s="45">
+      <c r="F90" s="37">
         <f>IF(C90="-",0,VLOOKUP($C90,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21138,7 +21131,7 @@
         <f>IF(C91="-","-",VLOOKUP($C91,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F91" s="45">
+      <c r="F91" s="37">
         <f>IF(C91="-",0,VLOOKUP($C91,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21166,7 +21159,7 @@
         <f>IF(C92="-","-",VLOOKUP($C92,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F92" s="45">
+      <c r="F92" s="37">
         <f>IF(C92="-",0,VLOOKUP($C92,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21194,7 +21187,7 @@
         <f>IF(C93="-","-",VLOOKUP($C93,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F93" s="45">
+      <c r="F93" s="37">
         <f>IF(C93="-",0,VLOOKUP($C93,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21222,7 +21215,7 @@
         <f>IF(C94="-","-",VLOOKUP($C94,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F94" s="45">
+      <c r="F94" s="37">
         <f>IF(C94="-",0,VLOOKUP($C94,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21250,7 +21243,7 @@
         <f>IF(C95="-","-",VLOOKUP($C95,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F95" s="45">
+      <c r="F95" s="37">
         <f>IF(C95="-",0,VLOOKUP($C95,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21278,7 +21271,7 @@
         <f>IF(C96="-","-",VLOOKUP($C96,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F96" s="45">
+      <c r="F96" s="37">
         <f>IF(C96="-",0,VLOOKUP($C96,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21306,7 +21299,7 @@
         <f>IF(C97="-","-",VLOOKUP($C97,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F97" s="45">
+      <c r="F97" s="37">
         <f>IF(C97="-",0,VLOOKUP($C97,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21334,7 +21327,7 @@
         <f>IF(C98="-","-",VLOOKUP($C98,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F98" s="45">
+      <c r="F98" s="37">
         <f>IF(C98="-",0,VLOOKUP($C98,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21362,7 +21355,7 @@
         <f>IF(C99="-","-",VLOOKUP($C99,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F99" s="45">
+      <c r="F99" s="37">
         <f>IF(C99="-",0,VLOOKUP($C99,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21390,7 +21383,7 @@
         <f>IF(C100="-","-",VLOOKUP($C100,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F100" s="45">
+      <c r="F100" s="37">
         <f>IF(C100="-",0,VLOOKUP($C100,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21418,7 +21411,7 @@
         <f>IF(C101="-","-",VLOOKUP($C101,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F101" s="45">
+      <c r="F101" s="37">
         <f>IF(C101="-",0,VLOOKUP($C101,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21446,7 +21439,7 @@
         <f>IF(C102="-","-",VLOOKUP($C102,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F102" s="45">
+      <c r="F102" s="37">
         <f>IF(C102="-",0,VLOOKUP($C102,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21474,7 +21467,7 @@
         <f>IF(C103="-","-",VLOOKUP($C103,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F103" s="45">
+      <c r="F103" s="37">
         <f>IF(C103="-",0,VLOOKUP($C103,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21502,7 +21495,7 @@
         <f>IF(C104="-","-",VLOOKUP($C104,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F104" s="45">
+      <c r="F104" s="37">
         <f>IF(C104="-",0,VLOOKUP($C104,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21530,7 +21523,7 @@
         <f>IF(C105="-","-",VLOOKUP($C105,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F105" s="45">
+      <c r="F105" s="37">
         <f>IF(C105="-",0,VLOOKUP($C105,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21558,7 +21551,7 @@
         <f>IF(C106="-","-",VLOOKUP($C106,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F106" s="45">
+      <c r="F106" s="37">
         <f>IF(C106="-",0,VLOOKUP($C106,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21586,7 +21579,7 @@
         <f>IF(C107="-","-",VLOOKUP($C107,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F107" s="45">
+      <c r="F107" s="37">
         <f>IF(C107="-",0,VLOOKUP($C107,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21614,7 +21607,7 @@
         <f>IF(C108="-","-",VLOOKUP($C108,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F108" s="45">
+      <c r="F108" s="37">
         <f>IF(C108="-",0,VLOOKUP($C108,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21642,7 +21635,7 @@
         <f>IF(C109="-","-",VLOOKUP($C109,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F109" s="45">
+      <c r="F109" s="37">
         <f>IF(C109="-",0,VLOOKUP($C109,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21670,7 +21663,7 @@
         <f>IF(C110="-","-",VLOOKUP($C110,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F110" s="45">
+      <c r="F110" s="37">
         <f>IF(C110="-",0,VLOOKUP($C110,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21698,7 +21691,7 @@
         <f>IF(C111="-","-",VLOOKUP($C111,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F111" s="45">
+      <c r="F111" s="37">
         <f>IF(C111="-",0,VLOOKUP($C111,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21726,7 +21719,7 @@
         <f>IF(C112="-","-",VLOOKUP($C112,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F112" s="45">
+      <c r="F112" s="37">
         <f>IF(C112="-",0,VLOOKUP($C112,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21754,7 +21747,7 @@
         <f>IF(C113="-","-",VLOOKUP($C113,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F113" s="45">
+      <c r="F113" s="37">
         <f>IF(C113="-",0,VLOOKUP($C113,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21782,7 +21775,7 @@
         <f>IF(C114="-","-",VLOOKUP($C114,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F114" s="45">
+      <c r="F114" s="37">
         <f>IF(C114="-",0,VLOOKUP($C114,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21810,7 +21803,7 @@
         <f>IF(C115="-","-",VLOOKUP($C115,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F115" s="45">
+      <c r="F115" s="37">
         <f>IF(C115="-",0,VLOOKUP($C115,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21838,7 +21831,7 @@
         <f>IF(C116="-","-",VLOOKUP($C116,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F116" s="45">
+      <c r="F116" s="37">
         <f>IF(C116="-",0,VLOOKUP($C116,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21866,7 +21859,7 @@
         <f>IF(C117="-","-",VLOOKUP($C117,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F117" s="45">
+      <c r="F117" s="37">
         <f>IF(C117="-",0,VLOOKUP($C117,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21894,7 +21887,7 @@
         <f>IF(C118="-","-",VLOOKUP($C118,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F118" s="45">
+      <c r="F118" s="37">
         <f>IF(C118="-",0,VLOOKUP($C118,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21922,7 +21915,7 @@
         <f>IF(C119="-","-",VLOOKUP($C119,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F119" s="45">
+      <c r="F119" s="37">
         <f>IF(C119="-",0,VLOOKUP($C119,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21950,7 +21943,7 @@
         <f>IF(C120="-","-",VLOOKUP($C120,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F120" s="45">
+      <c r="F120" s="37">
         <f>IF(C120="-",0,VLOOKUP($C120,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -21978,7 +21971,7 @@
         <f>IF(C121="-","-",VLOOKUP($C121,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F121" s="45">
+      <c r="F121" s="37">
         <f>IF(C121="-",0,VLOOKUP($C121,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22006,7 +21999,7 @@
         <f>IF(C122="-","-",VLOOKUP($C122,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F122" s="45">
+      <c r="F122" s="37">
         <f>IF(C122="-",0,VLOOKUP($C122,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22034,7 +22027,7 @@
         <f>IF(C123="-","-",VLOOKUP($C123,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F123" s="45">
+      <c r="F123" s="37">
         <f>IF(C123="-",0,VLOOKUP($C123,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22062,7 +22055,7 @@
         <f>IF(C124="-","-",VLOOKUP($C124,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F124" s="45">
+      <c r="F124" s="37">
         <f>IF(C124="-",0,VLOOKUP($C124,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22090,7 +22083,7 @@
         <f>IF(C125="-","-",VLOOKUP($C125,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F125" s="45">
+      <c r="F125" s="37">
         <f>IF(C125="-",0,VLOOKUP($C125,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22118,7 +22111,7 @@
         <f>IF(C126="-","-",VLOOKUP($C126,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F126" s="45">
+      <c r="F126" s="37">
         <f>IF(C126="-",0,VLOOKUP($C126,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22146,7 +22139,7 @@
         <f>IF(C127="-","-",VLOOKUP($C127,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F127" s="45">
+      <c r="F127" s="37">
         <f>IF(C127="-",0,VLOOKUP($C127,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22174,7 +22167,7 @@
         <f>IF(C128="-","-",VLOOKUP($C128,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F128" s="45">
+      <c r="F128" s="37">
         <f>IF(C128="-",0,VLOOKUP($C128,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22202,7 +22195,7 @@
         <f>IF(C129="-","-",VLOOKUP($C129,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F129" s="45">
+      <c r="F129" s="37">
         <f>IF(C129="-",0,VLOOKUP($C129,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22230,7 +22223,7 @@
         <f>IF(C130="-","-",VLOOKUP($C130,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F130" s="45">
+      <c r="F130" s="37">
         <f>IF(C130="-",0,VLOOKUP($C130,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22258,7 +22251,7 @@
         <f>IF(C131="-","-",VLOOKUP($C131,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F131" s="45">
+      <c r="F131" s="37">
         <f>IF(C131="-",0,VLOOKUP($C131,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22286,7 +22279,7 @@
         <f>IF(C132="-","-",VLOOKUP($C132,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F132" s="45">
+      <c r="F132" s="37">
         <f>IF(C132="-",0,VLOOKUP($C132,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22314,7 +22307,7 @@
         <f>IF(C133="-","-",VLOOKUP($C133,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F133" s="45">
+      <c r="F133" s="37">
         <f>IF(C133="-",0,VLOOKUP($C133,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22342,7 +22335,7 @@
         <f>IF(C134="-","-",VLOOKUP($C134,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F134" s="45">
+      <c r="F134" s="37">
         <f>IF(C134="-",0,VLOOKUP($C134,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22370,7 +22363,7 @@
         <f>IF(C135="-","-",VLOOKUP($C135,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F135" s="45">
+      <c r="F135" s="37">
         <f>IF(C135="-",0,VLOOKUP($C135,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22398,7 +22391,7 @@
         <f>IF(C136="-","-",VLOOKUP($C136,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F136" s="45">
+      <c r="F136" s="37">
         <f>IF(C136="-",0,VLOOKUP($C136,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22426,7 +22419,7 @@
         <f>IF(C137="-","-",VLOOKUP($C137,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F137" s="45">
+      <c r="F137" s="37">
         <f>IF(C137="-",0,VLOOKUP($C137,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22454,7 +22447,7 @@
         <f>IF(C138="-","-",VLOOKUP($C138,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F138" s="45">
+      <c r="F138" s="37">
         <f>IF(C138="-",0,VLOOKUP($C138,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22482,7 +22475,7 @@
         <f>IF(C139="-","-",VLOOKUP($C139,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F139" s="45">
+      <c r="F139" s="37">
         <f>IF(C139="-",0,VLOOKUP($C139,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22510,7 +22503,7 @@
         <f>IF(C140="-","-",VLOOKUP($C140,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F140" s="45">
+      <c r="F140" s="37">
         <f>IF(C140="-",0,VLOOKUP($C140,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22538,7 +22531,7 @@
         <f>IF(C141="-","-",VLOOKUP($C141,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F141" s="45">
+      <c r="F141" s="37">
         <f>IF(C141="-",0,VLOOKUP($C141,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22566,7 +22559,7 @@
         <f>IF(C142="-","-",VLOOKUP($C142,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F142" s="45">
+      <c r="F142" s="37">
         <f>IF(C142="-",0,VLOOKUP($C142,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22594,7 +22587,7 @@
         <f>IF(C143="-","-",VLOOKUP($C143,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F143" s="45">
+      <c r="F143" s="37">
         <f>IF(C143="-",0,VLOOKUP($C143,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22622,7 +22615,7 @@
         <f>IF(C144="-","-",VLOOKUP($C144,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F144" s="45">
+      <c r="F144" s="37">
         <f>IF(C144="-",0,VLOOKUP($C144,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22650,7 +22643,7 @@
         <f>IF(C145="-","-",VLOOKUP($C145,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F145" s="45">
+      <c r="F145" s="37">
         <f>IF(C145="-",0,VLOOKUP($C145,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22678,7 +22671,7 @@
         <f>IF(C146="-","-",VLOOKUP($C146,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F146" s="45">
+      <c r="F146" s="37">
         <f>IF(C146="-",0,VLOOKUP($C146,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22706,7 +22699,7 @@
         <f>IF(C147="-","-",VLOOKUP($C147,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F147" s="45">
+      <c r="F147" s="37">
         <f>IF(C147="-",0,VLOOKUP($C147,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22734,7 +22727,7 @@
         <f>IF(C148="-","-",VLOOKUP($C148,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F148" s="45">
+      <c r="F148" s="37">
         <f>IF(C148="-",0,VLOOKUP($C148,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22762,7 +22755,7 @@
         <f>IF(C149="-","-",VLOOKUP($C149,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F149" s="45">
+      <c r="F149" s="37">
         <f>IF(C149="-",0,VLOOKUP($C149,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22790,7 +22783,7 @@
         <f>IF(C150="-","-",VLOOKUP($C150,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F150" s="45">
+      <c r="F150" s="37">
         <f>IF(C150="-",0,VLOOKUP($C150,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22818,7 +22811,7 @@
         <f>IF(C151="-","-",VLOOKUP($C151,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F151" s="45">
+      <c r="F151" s="37">
         <f>IF(C151="-",0,VLOOKUP($C151,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22846,7 +22839,7 @@
         <f>IF(C152="-","-",VLOOKUP($C152,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F152" s="45">
+      <c r="F152" s="37">
         <f>IF(C152="-",0,VLOOKUP($C152,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22874,7 +22867,7 @@
         <f>IF(C153="-","-",VLOOKUP($C153,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F153" s="45">
+      <c r="F153" s="37">
         <f>IF(C153="-",0,VLOOKUP($C153,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22902,7 +22895,7 @@
         <f>IF(C154="-","-",VLOOKUP($C154,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F154" s="45">
+      <c r="F154" s="37">
         <f>IF(C154="-",0,VLOOKUP($C154,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22930,7 +22923,7 @@
         <f>IF(C155="-","-",VLOOKUP($C155,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F155" s="45">
+      <c r="F155" s="37">
         <f>IF(C155="-",0,VLOOKUP($C155,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22958,7 +22951,7 @@
         <f>IF(C156="-","-",VLOOKUP($C156,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F156" s="45">
+      <c r="F156" s="37">
         <f>IF(C156="-",0,VLOOKUP($C156,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -22986,7 +22979,7 @@
         <f>IF(C157="-","-",VLOOKUP($C157,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F157" s="45">
+      <c r="F157" s="37">
         <f>IF(C157="-",0,VLOOKUP($C157,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23014,7 +23007,7 @@
         <f>IF(C158="-","-",VLOOKUP($C158,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F158" s="45">
+      <c r="F158" s="37">
         <f>IF(C158="-",0,VLOOKUP($C158,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23042,7 +23035,7 @@
         <f>IF(C159="-","-",VLOOKUP($C159,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F159" s="45">
+      <c r="F159" s="37">
         <f>IF(C159="-",0,VLOOKUP($C159,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23070,7 +23063,7 @@
         <f>IF(C160="-","-",VLOOKUP($C160,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F160" s="45">
+      <c r="F160" s="37">
         <f>IF(C160="-",0,VLOOKUP($C160,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23098,7 +23091,7 @@
         <f>IF(C161="-","-",VLOOKUP($C161,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F161" s="45">
+      <c r="F161" s="37">
         <f>IF(C161="-",0,VLOOKUP($C161,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23126,7 +23119,7 @@
         <f>IF(C162="-","-",VLOOKUP($C162,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F162" s="45">
+      <c r="F162" s="37">
         <f>IF(C162="-",0,VLOOKUP($C162,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23154,7 +23147,7 @@
         <f>IF(C163="-","-",VLOOKUP($C163,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F163" s="45">
+      <c r="F163" s="37">
         <f>IF(C163="-",0,VLOOKUP($C163,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23182,7 +23175,7 @@
         <f>IF(C164="-","-",VLOOKUP($C164,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F164" s="45">
+      <c r="F164" s="37">
         <f>IF(C164="-",0,VLOOKUP($C164,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23210,7 +23203,7 @@
         <f>IF(C165="-","-",VLOOKUP($C165,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F165" s="45">
+      <c r="F165" s="37">
         <f>IF(C165="-",0,VLOOKUP($C165,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23238,7 +23231,7 @@
         <f>IF(C166="-","-",VLOOKUP($C166,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F166" s="45">
+      <c r="F166" s="37">
         <f>IF(C166="-",0,VLOOKUP($C166,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23266,7 +23259,7 @@
         <f>IF(C167="-","-",VLOOKUP($C167,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F167" s="45">
+      <c r="F167" s="37">
         <f>IF(C167="-",0,VLOOKUP($C167,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23294,7 +23287,7 @@
         <f>IF(C168="-","-",VLOOKUP($C168,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F168" s="45">
+      <c r="F168" s="37">
         <f>IF(C168="-",0,VLOOKUP($C168,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23322,7 +23315,7 @@
         <f>IF(C169="-","-",VLOOKUP($C169,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F169" s="45">
+      <c r="F169" s="37">
         <f>IF(C169="-",0,VLOOKUP($C169,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23350,7 +23343,7 @@
         <f>IF(C170="-","-",VLOOKUP($C170,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F170" s="45">
+      <c r="F170" s="37">
         <f>IF(C170="-",0,VLOOKUP($C170,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23378,7 +23371,7 @@
         <f>IF(C171="-","-",VLOOKUP($C171,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F171" s="45">
+      <c r="F171" s="37">
         <f>IF(C171="-",0,VLOOKUP($C171,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23406,7 +23399,7 @@
         <f>IF(C172="-","-",VLOOKUP($C172,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F172" s="45">
+      <c r="F172" s="37">
         <f>IF(C172="-",0,VLOOKUP($C172,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23434,7 +23427,7 @@
         <f>IF(C173="-","-",VLOOKUP($C173,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F173" s="45">
+      <c r="F173" s="37">
         <f>IF(C173="-",0,VLOOKUP($C173,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23462,7 +23455,7 @@
         <f>IF(C174="-","-",VLOOKUP($C174,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F174" s="45">
+      <c r="F174" s="37">
         <f>IF(C174="-",0,VLOOKUP($C174,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23490,7 +23483,7 @@
         <f>IF(C175="-","-",VLOOKUP($C175,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F175" s="45">
+      <c r="F175" s="37">
         <f>IF(C175="-",0,VLOOKUP($C175,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23518,7 +23511,7 @@
         <f>IF(C176="-","-",VLOOKUP($C176,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F176" s="45">
+      <c r="F176" s="37">
         <f>IF(C176="-",0,VLOOKUP($C176,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23546,7 +23539,7 @@
         <f>IF(C177="-","-",VLOOKUP($C177,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F177" s="45">
+      <c r="F177" s="37">
         <f>IF(C177="-",0,VLOOKUP($C177,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23574,7 +23567,7 @@
         <f>IF(C178="-","-",VLOOKUP($C178,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F178" s="45">
+      <c r="F178" s="37">
         <f>IF(C178="-",0,VLOOKUP($C178,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23602,7 +23595,7 @@
         <f>IF(C179="-","-",VLOOKUP($C179,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F179" s="45">
+      <c r="F179" s="37">
         <f>IF(C179="-",0,VLOOKUP($C179,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23630,7 +23623,7 @@
         <f>IF(C180="-","-",VLOOKUP($C180,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F180" s="45">
+      <c r="F180" s="37">
         <f>IF(C180="-",0,VLOOKUP($C180,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23658,7 +23651,7 @@
         <f>IF(C181="-","-",VLOOKUP($C181,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F181" s="45">
+      <c r="F181" s="37">
         <f>IF(C181="-",0,VLOOKUP($C181,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23686,7 +23679,7 @@
         <f>IF(C182="-","-",VLOOKUP($C182,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F182" s="45">
+      <c r="F182" s="37">
         <f>IF(C182="-",0,VLOOKUP($C182,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23714,7 +23707,7 @@
         <f>IF(C183="-","-",VLOOKUP($C183,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F183" s="45">
+      <c r="F183" s="37">
         <f>IF(C183="-",0,VLOOKUP($C183,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23742,7 +23735,7 @@
         <f>IF(C184="-","-",VLOOKUP($C184,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F184" s="45">
+      <c r="F184" s="37">
         <f>IF(C184="-",0,VLOOKUP($C184,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23770,7 +23763,7 @@
         <f>IF(C185="-","-",VLOOKUP($C185,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F185" s="45">
+      <c r="F185" s="37">
         <f>IF(C185="-",0,VLOOKUP($C185,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23798,7 +23791,7 @@
         <f>IF(C186="-","-",VLOOKUP($C186,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F186" s="45">
+      <c r="F186" s="37">
         <f>IF(C186="-",0,VLOOKUP($C186,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23826,7 +23819,7 @@
         <f>IF(C187="-","-",VLOOKUP($C187,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F187" s="45">
+      <c r="F187" s="37">
         <f>IF(C187="-",0,VLOOKUP($C187,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23854,7 +23847,7 @@
         <f>IF(C188="-","-",VLOOKUP($C188,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F188" s="45">
+      <c r="F188" s="37">
         <f>IF(C188="-",0,VLOOKUP($C188,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23882,7 +23875,7 @@
         <f>IF(C189="-","-",VLOOKUP($C189,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F189" s="45">
+      <c r="F189" s="37">
         <f>IF(C189="-",0,VLOOKUP($C189,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23910,7 +23903,7 @@
         <f>IF(C190="-","-",VLOOKUP($C190,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F190" s="45">
+      <c r="F190" s="37">
         <f>IF(C190="-",0,VLOOKUP($C190,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23938,7 +23931,7 @@
         <f>IF(C191="-","-",VLOOKUP($C191,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F191" s="45">
+      <c r="F191" s="37">
         <f>IF(C191="-",0,VLOOKUP($C191,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23966,7 +23959,7 @@
         <f>IF(C192="-","-",VLOOKUP($C192,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F192" s="45">
+      <c r="F192" s="37">
         <f>IF(C192="-",0,VLOOKUP($C192,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -23994,7 +23987,7 @@
         <f>IF(C193="-","-",VLOOKUP($C193,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F193" s="45">
+      <c r="F193" s="37">
         <f>IF(C193="-",0,VLOOKUP($C193,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -24022,7 +24015,7 @@
         <f>IF(C194="-","-",VLOOKUP($C194,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F194" s="45">
+      <c r="F194" s="37">
         <f>IF(C194="-",0,VLOOKUP($C194,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -24050,7 +24043,7 @@
         <f>IF(C195="-","-",VLOOKUP($C195,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F195" s="45">
+      <c r="F195" s="37">
         <f>IF(C195="-",0,VLOOKUP($C195,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -24078,7 +24071,7 @@
         <f>IF(C196="-","-",VLOOKUP($C196,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F196" s="45">
+      <c r="F196" s="37">
         <f>IF(C196="-",0,VLOOKUP($C196,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -24106,7 +24099,7 @@
         <f>IF(C197="-","-",VLOOKUP($C197,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F197" s="45">
+      <c r="F197" s="37">
         <f>IF(C197="-",0,VLOOKUP($C197,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -24134,7 +24127,7 @@
         <f>IF(C198="-","-",VLOOKUP($C198,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F198" s="45">
+      <c r="F198" s="37">
         <f>IF(C198="-",0,VLOOKUP($C198,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -24162,7 +24155,7 @@
         <f>IF(C199="-","-",VLOOKUP($C199,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F199" s="45">
+      <c r="F199" s="37">
         <f>IF(C199="-",0,VLOOKUP($C199,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -24190,7 +24183,7 @@
         <f>IF(C200="-","-",VLOOKUP($C200,'[1]Part Numbers'!$B:$J,E$2,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="F200" s="45">
+      <c r="F200" s="37">
         <f>IF(C200="-",0,VLOOKUP($C200,'[1]Part Numbers'!$B:$J,F$2,FALSE))</f>
         <v>0</v>
       </c>
@@ -24231,7 +24224,7 @@
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -24253,7 +24246,7 @@
       <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -24263,8 +24256,8 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="29"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -24272,8 +24265,8 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
@@ -24282,7 +24275,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <f>SUM(G5:G23)</f>
         <v>2368104.61</v>
       </c>
@@ -24303,7 +24296,7 @@
       <c r="F5" s="4">
         <v>333685.15000000002</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f>D5*F5</f>
         <v>333685.15000000002</v>
       </c>
@@ -24324,7 +24317,7 @@
       <c r="F6" s="4">
         <v>449434.49</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <f t="shared" ref="G6:G9" si="0">D6*F6</f>
         <v>449434.49</v>
       </c>
@@ -24345,7 +24338,7 @@
       <c r="F7" s="4">
         <v>491018.49</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f t="shared" si="0"/>
         <v>491018.49</v>
       </c>
@@ -24366,7 +24359,7 @@
       <c r="F8" s="4">
         <v>526553.49</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <f t="shared" si="0"/>
         <v>526553.49</v>
       </c>
@@ -24387,7 +24380,7 @@
       <c r="F9" s="4">
         <v>567412.99</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <f t="shared" si="0"/>
         <v>567412.99</v>
       </c>
